--- a/config_10.19/act_ty_gifts_config.xlsx
+++ b/config_10.19/act_ty_gifts_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="127">
   <si>
     <t>index|序号</t>
   </si>
@@ -822,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1502,9 +1502,7 @@
       <c r="C10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
@@ -1546,9 +1544,7 @@
       <c r="C11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1590,9 +1586,7 @@
       <c r="C12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1634,9 +1628,7 @@
       <c r="C13" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>40</v>
       </c>
